--- a/Data_Msg_Quantity.xlsx
+++ b/Data_Msg_Quantity.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28407"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rkive\7\Software Testing &amp; QA\Katalon Studio\TechZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6F077-3ADE-435B-8DC0-D89721EAA8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>insert</t>
   </si>
@@ -32,36 +33,33 @@
     <t>msg</t>
   </si>
   <si>
-    <t>II</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>Please supply a valid quantity.</t>
-  </si>
-  <si>
     <t>Sucessfully</t>
   </si>
   <si>
-    <t>Value must be greater than or equal to 9.</t>
-  </si>
-  <si>
-    <t>Please enter a valid value.The two nearest values are 5 and 6.</t>
-  </si>
-  <si>
-    <t>Value must be greater than or equal to 1.</t>
+    <t>Giá trị phải nhỏ hơn hoặc bằng 9.</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập một con số.</t>
+  </si>
+  <si>
+    <t>Giá trị phải lớn hơn hoặc bằng 1.</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập một giá trị hợp lệ. Hai giá trị hợp lệ gần nhất là 5 và 6.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -113,15 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -134,7 +125,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,86 +402,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B229FB-2F7D-42AB-A75C-210DDB1D1C58}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="2"/>
-    <col min="2" max="2" width="57" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>